--- a/R_C14_DADA2/phyloseq/init_files/colours_petb.xlsx
+++ b/R_C14_DADA2/phyloseq/init_files/colours_petb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_DADA2/phyloseq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_DADA2/phyloseq/init_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AA224B-0857-0049-88F6-9358938BB8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E761E2C-533C-7644-B9FC-555B39100DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="3" xr2:uid="{8B01ED10-B277-924E-A305-DA70903B797C}"/>
+    <workbookView xWindow="32420" yWindow="-11080" windowWidth="25600" windowHeight="14400" activeTab="3" xr2:uid="{8B01ED10-B277-924E-A305-DA70903B797C}"/>
   </bookViews>
   <sheets>
     <sheet name="genus" sheetId="1" r:id="rId1"/>
@@ -220,9 +220,6 @@
     <t>#0000FF</t>
   </si>
   <si>
-    <t>#3399FF</t>
-  </si>
-  <si>
     <t>#000099</t>
   </si>
   <si>
@@ -338,6 +335,9 @@
   </si>
   <si>
     <t>#E5B17E</t>
+  </si>
+  <si>
+    <t>#FFEE99</t>
   </si>
 </sst>
 </file>
@@ -841,7 +841,7 @@
         <v>5.2</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -849,7 +849,7 @@
         <v>5.3</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -857,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -888,7 +888,7 @@
         <v>5.2</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -896,7 +896,7 @@
         <v>5.3</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -904,7 +904,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -912,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -920,7 +920,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -944,7 +944,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -952,7 +952,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -960,7 +960,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -968,7 +968,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -976,7 +976,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -984,7 +984,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -992,7 +992,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1000,7 +1000,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1008,7 +1008,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1016,7 +1016,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1024,7 +1024,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1032,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3510C99-2F3C-C243-9AD3-3A99BE32039E}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1063,7 +1063,7 @@
         <v>5.2</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1071,7 +1071,7 @@
         <v>5.2</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1079,7 +1079,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1087,7 +1087,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1095,7 +1095,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1103,7 +1103,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1111,7 +1111,7 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1119,7 +1119,7 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1127,7 +1127,7 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1135,7 +1135,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1143,7 +1143,7 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1151,7 +1151,7 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1159,7 +1159,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1167,7 +1167,7 @@
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1183,7 +1183,7 @@
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1191,7 +1191,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1199,7 +1199,7 @@
         <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1207,7 +1207,7 @@
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1215,7 +1215,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1223,7 +1223,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1231,7 +1231,7 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1239,7 +1239,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1247,7 +1247,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1255,7 +1255,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1263,7 +1263,7 @@
         <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1271,7 +1271,7 @@
         <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1279,7 +1279,7 @@
         <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1287,7 +1287,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1295,7 +1295,7 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1303,7 +1303,7 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1311,7 +1311,7 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1319,7 +1319,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1327,15 +1327,15 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
